--- a/C语言课程设计/2016/2016课程设计备忘.xlsx
+++ b/C语言课程设计/2016/2016课程设计备忘.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>15040310079</t>
   </si>
@@ -114,6 +114,30 @@
   </si>
   <si>
     <t>提交：大作业，提交成绩后的打印。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不通过</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -493,10 +517,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -504,12 +528,12 @@
     <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1">
+    <row r="1" spans="1:5" s="4" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -519,8 +543,11 @@
       <c r="C2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -530,8 +557,11 @@
       <c r="C3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>15040310073</v>
       </c>
@@ -541,8 +571,11 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -552,55 +585,79 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="B6" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="B7" t="s">
         <v>11</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="B8" t="s">
         <v>14</v>
       </c>
       <c r="C8" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" s="4" customFormat="1">
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="4" customFormat="1">
       <c r="A10" s="3"/>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:5">
       <c r="A11" s="3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15" s="3" t="s">
         <v>20</v>
       </c>
